--- a/server/template.xlsx
+++ b/server/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>login</t>
   </si>
@@ -28,7 +28,10 @@
     <t>apolline.couturier-gauducheau@epitech.eu</t>
   </si>
   <si>
-    <t>16:20 -&gt; 16:40</t>
+    <t/>
+  </si>
+  <si>
+    <t>AM: Bon investissement, problème de visualisation des boucles</t>
   </si>
   <si>
     <t>axel.lopez@epitech.eu</t>
@@ -37,13 +40,10 @@
     <t>baptiste.vezien@epitech.eu</t>
   </si>
   <si>
-    <t>17:00 -&gt; 17:04</t>
-  </si>
-  <si>
     <t>cleophee.itier@epitech.eu</t>
   </si>
   <si>
-    <t>16:48 -&gt; 16:51</t>
+    <t>11:15 -&gt; 11:16</t>
   </si>
   <si>
     <t>damien.carrere@epitech.eu</t>
@@ -52,41 +52,25 @@
     <t>dean.artigaut@epitech.eu</t>
   </si>
   <si>
-    <t>15:44 -&gt; 15:56
-17:00 -&gt; 17:10
-17:39 -&gt; 17:40</t>
-  </si>
-  <si>
     <t>elhadj-makan.traore@epitech.eu</t>
   </si>
   <si>
-    <t>14:55 -&gt; 15:03
-16:26 -&gt; 16:40
-17:00 -&gt; 17:09</t>
-  </si>
-  <si>
     <t>enzo.bakri@epitech.eu</t>
   </si>
   <si>
     <t>esteban.juan@epitech.eu</t>
   </si>
   <si>
-    <t>16:26 -&gt; 16:30</t>
-  </si>
-  <si>
     <t>florian.wilk@epitech.eu</t>
   </si>
   <si>
-    <t>15:30 -&gt; 15:46
-16:58 -&gt; 17:06
-17:19 -&gt; 17:24</t>
+    <t>11:44 -&gt; 11:50</t>
   </si>
   <si>
     <t>franck.bellocq@epitech.eu</t>
   </si>
   <si>
-    <t>15:09 -&gt; 15:17
-16:58 -&gt; 17:07</t>
+    <t>10:21 -&gt; 10:34</t>
   </si>
   <si>
     <t>jinyang.zou@epitech.eu</t>
@@ -101,24 +85,21 @@
     <t>lohan.delomenie@epitech.eu</t>
   </si>
   <si>
-    <t>16:28 -&gt; 16:46
-17:00 -&gt; 17:14</t>
+    <t>09:41 -&gt; 09:43
+09:46 -&gt; 09:54
+10:21 -&gt; 10:34
+10:40 -&gt; 10:53</t>
   </si>
   <si>
     <t>luka.constantin@epitech.eu</t>
   </si>
   <si>
-    <t>15:29 -&gt; 15:57
-17:00 -&gt; 17:49</t>
+    <t>11:02 -&gt; 11:04</t>
   </si>
   <si>
     <t>mathias.cassonnet@epitech.eu</t>
   </si>
   <si>
-    <t>16:24 -&gt; 16:40
-17:01 -&gt; 17:09</t>
-  </si>
-  <si>
     <t>matthis.carle@epitech.eu</t>
   </si>
   <si>
@@ -128,30 +109,26 @@
     <t>nadir.allem@epitech.eu</t>
   </si>
   <si>
-    <t>14:32 -&gt; 14:33
-15:15 -&gt; 15:20
-16:58 -&gt; 17:06</t>
+    <t>10:10 -&gt; 10:12
+11:44 -&gt; 11:50</t>
   </si>
   <si>
     <t>nathan.frappier@epitech.eu</t>
   </si>
   <si>
-    <t>17:00 -&gt; 17:08</t>
-  </si>
-  <si>
     <t>nicolas.lapu@epitech.eu</t>
   </si>
   <si>
-    <t>16:00 -&gt; 16:08
-17:00 -&gt; 17:18</t>
+    <t>11:10 -&gt; 11:12
+11:12 -&gt; 11:12</t>
+  </si>
+  <si>
+    <t>AM: Bonne progression, des difficultés sur les caractères majuscules/minuscules qui a sût surmonter</t>
   </si>
   <si>
     <t>olivier.emiot@epitech.eu</t>
   </si>
   <si>
-    <t>16:56 -&gt; 16:56</t>
-  </si>
-  <si>
     <t>pierre-malko.denat@epitech.eu</t>
   </si>
   <si>
@@ -161,35 +138,30 @@
     <t>thomas.demonchaux@epitech.eu</t>
   </si>
   <si>
-    <t>14:32 -&gt; 14:34
-17:00 -&gt; 17:26</t>
+    <t>09:43 -&gt; 09:50</t>
   </si>
   <si>
     <t>thomas.labrousse@epitech.eu</t>
   </si>
   <si>
-    <t>15:29 -&gt; 15:59
-17:00 -&gt; 17:07</t>
+    <t>11:22 -&gt; 11:29</t>
   </si>
   <si>
     <t>valentin.erdozain@epitech.eu</t>
   </si>
   <si>
-    <t>17:08 -&gt; 17:49</t>
-  </si>
-  <si>
     <t>victor.miot@epitech.eu</t>
   </si>
   <si>
-    <t>15:09 -&gt; 15:16
-16:59 -&gt; 17:07</t>
+    <t>10:00 -&gt; 10:00
+10:22 -&gt; 10:34</t>
   </si>
   <si>
     <t>yann.marcotte@epitech.eu</t>
   </si>
   <si>
-    <t>15:25 -&gt; 15:29
-17:08 -&gt; 17:49</t>
+    <t>09:12 -&gt; 09:15
+10:34 -&gt; 10:37</t>
   </si>
 </sst>
 </file>
@@ -233,8 +205,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
@@ -574,28 +546,28 @@
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,212 +590,201 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/template.xlsx
+++ b/server/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="show" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>login</t>
   </si>
@@ -25,143 +25,296 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>adrien.pilet@epitech.eu</t>
+  </si>
+  <si>
+    <t>14:21 -&gt; 14:24
+15:31 -&gt; 16:20
+23:03 -&gt; 23:03</t>
+  </si>
+  <si>
+    <t>A terminé le tree, commence la deuxième partie (recherche du path). Les requirements passent. Pas de difficultés particulières.</t>
+  </si>
+  <si>
+    <t>alex.wild@epitech.eu</t>
+  </si>
+  <si>
+    <t>09:37 -&gt; 09:38
+10:02 -&gt; 10:10
+14:16 -&gt; 14:25
+15:18 -&gt; 15:26
+16:19 -&gt; 16:31
+17:20 -&gt; 17:35</t>
+  </si>
+  <si>
+    <t>Requirements OK. Tree OK (à commencer avec opendir/readdir mais n'a pas réussi donc avec scandir, astucieux). Entrain de chercher le BFT dans le $PATH/directory.</t>
+  </si>
+  <si>
+    <t>antoine.duplaa@epitech.eu</t>
+  </si>
+  <si>
+    <t>11:13 -&gt; 11:14
+13:10 -&gt; 13:10
+14:47 -&gt; 14:49
+15:31 -&gt; 16:20</t>
+  </si>
+  <si>
     <t>apolline.couturier-gauducheau@epitech.eu</t>
   </si>
   <si>
+    <t>11:05 -&gt; 11:12
+11:17 -&gt; 11:22
+11:48 -&gt; 11:57
+15:35 -&gt; 15:51</t>
+  </si>
+  <si>
+    <t>Requirements normalement OK. Galère sur le 1er exo (y est presque) car quelques bugs mais à compris la logique de la recursivité. (est entrain d'apprendre les graphs)</t>
+  </si>
+  <si>
+    <t>arthur.viard@epitech.eu</t>
+  </si>
+  <si>
+    <t>09:56 -&gt; 10:01
+14:20 -&gt; 14:28
+14:33 -&gt; 14:34
+16:15 -&gt; 16:24</t>
+  </si>
+  <si>
+    <t>Il est à la première partie du projet, possède la génération du tree et travaille sur son algorithme, affichage en cours. Il passe les requirements. Quelques difficultés sur l'ensemble de la première partie.</t>
+  </si>
+  <si>
+    <t>charlie.boyer@epitech.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attend la TA (car problème de Makefile lors de la première). Pense que les requirements OK. Tests avec popen("tree") (pas ouf). Même stade que olivier. </t>
+  </si>
+  <si>
+    <t>clement.nieto@epitech.eu</t>
+  </si>
+  <si>
+    <t>11:32 -&gt; 11:39
+15:38 -&gt; 15:39
+16:36 -&gt; 16:40</t>
+  </si>
+  <si>
+    <t>Entrain de corriger les bugs sur le tree. (~1 à 2h) avec recursif Graph.
+Commencer l'execve. (la partie où on execute les test)</t>
+  </si>
+  <si>
+    <t>dimitri.fleury@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:12 -&gt; 10:42
+15:34 -&gt; 16:06</t>
+  </si>
+  <si>
+    <t>Pas inscrit au projet - A commencé à travailler sur le projet mais éprouve des difficultés.</t>
+  </si>
+  <si>
+    <t>elie.gimenez@epitech.eu</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>enzo.delahaye@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:02 -&gt; 10:11
+16:46 -&gt; 17:00</t>
+  </si>
+  <si>
+    <t>termine le tree. Passe les requirements - pas de difficultés particulières.</t>
+  </si>
+  <si>
+    <t>hugo.mangematin@epitech.eu</t>
+  </si>
+  <si>
+    <t>15:32 -&gt; 16:20</t>
+  </si>
+  <si>
+    <t>A terminé le tree. Commence la deuxième partie (recherche du path). Il passe les requirements. Pas de difficultés particulières.</t>
+  </si>
+  <si>
+    <t>jinyang.zou@epitech.eu</t>
+  </si>
+  <si>
+    <t>14:39 -&gt; 14:57</t>
+  </si>
+  <si>
+    <t>Arrive à afficher l'ensemble des fichier. Manque le formatage. Manque juste le print car stoque déjà dans un graph l'ensemble des informations.</t>
+  </si>
+  <si>
+    <t>johan.saffre@epitech.eu</t>
+  </si>
+  <si>
+    <t>14:56 -&gt; 15:23
+16:28 -&gt; 16:38</t>
+  </si>
+  <si>
+    <t>N'a pas sa carte.
+C'est apperçus que le print n'était pas suffisant, donc travail sur le graph pour stocker les informations. (work in progress). Graph OK.</t>
+  </si>
+  <si>
+    <t>lohan.delomenie@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:33 -&gt; 10:41
+15:13 -&gt; 15:27
+17:06 -&gt; 17:28</t>
+  </si>
+  <si>
+    <t>Première partie terminé. Il passe les requirements, pas de difficultés particulières. Il commence la deuxième partie (recherche du path).</t>
+  </si>
+  <si>
+    <t>mathias.cassonnet@epitech.eu</t>
+  </si>
+  <si>
+    <t>9h13-9h18
+10:11 -&gt; 10:16
+14:53 -&gt; 14:55
+15:18 -&gt; 15:22
+16:31 -&gt; 16:33
+17:32 -&gt; 17:33</t>
+  </si>
+  <si>
+    <t>Requirements OK. Presque réussi le tree. Bug de condition pour la recursif. Pense avoir trouver la source de son bug. Pas de graph mais utilise la recursif pour la remplacer.</t>
+  </si>
+  <si>
+    <t>maxime.demurger@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:02 -&gt; 10:11
+15:25 -&gt; 15:25
+16:46 -&gt; 17:00</t>
+  </si>
+  <si>
+    <t>Termine le tree, il doit gerer l'affichage. Pas de difficultés particulières. Il passe les requirements.</t>
+  </si>
+  <si>
+    <t>meyrueis.de-jurquet@epitech.eu</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>AM: Bon investissement, problème de visualisation des boucles</t>
-  </si>
-  <si>
-    <t>axel.lopez@epitech.eu</t>
-  </si>
-  <si>
-    <t>baptiste.vezien@epitech.eu</t>
-  </si>
-  <si>
-    <t>cleophee.itier@epitech.eu</t>
-  </si>
-  <si>
-    <t>11:15 -&gt; 11:16</t>
-  </si>
-  <si>
-    <t>damien.carrere@epitech.eu</t>
-  </si>
-  <si>
-    <t>dean.artigaut@epitech.eu</t>
-  </si>
-  <si>
-    <t>elhadj-makan.traore@epitech.eu</t>
-  </si>
-  <si>
-    <t>enzo.bakri@epitech.eu</t>
-  </si>
-  <si>
-    <t>esteban.juan@epitech.eu</t>
-  </si>
-  <si>
-    <t>florian.wilk@epitech.eu</t>
-  </si>
-  <si>
-    <t>11:44 -&gt; 11:50</t>
-  </si>
-  <si>
-    <t>franck.bellocq@epitech.eu</t>
-  </si>
-  <si>
-    <t>10:21 -&gt; 10:34</t>
-  </si>
-  <si>
-    <t>jinyang.zou@epitech.eu</t>
-  </si>
-  <si>
-    <t>julie.bischoff@epitech.eu</t>
-  </si>
-  <si>
-    <t>karim.vergnes@epitech.eu</t>
-  </si>
-  <si>
-    <t>lohan.delomenie@epitech.eu</t>
-  </si>
-  <si>
-    <t>09:41 -&gt; 09:43
-09:46 -&gt; 09:54
-10:21 -&gt; 10:34
-10:40 -&gt; 10:53</t>
-  </si>
-  <si>
-    <t>luka.constantin@epitech.eu</t>
-  </si>
-  <si>
-    <t>11:02 -&gt; 11:04</t>
-  </si>
-  <si>
-    <t>mathias.cassonnet@epitech.eu</t>
-  </si>
-  <si>
-    <t>matthis.carle@epitech.eu</t>
-  </si>
-  <si>
-    <t>maxence.feyfant@epitech.eu</t>
-  </si>
-  <si>
-    <t>nadir.allem@epitech.eu</t>
-  </si>
-  <si>
-    <t>10:10 -&gt; 10:12
-11:44 -&gt; 11:50</t>
-  </si>
-  <si>
-    <t>nathan.frappier@epitech.eu</t>
-  </si>
-  <si>
-    <t>nicolas.lapu@epitech.eu</t>
-  </si>
-  <si>
-    <t>11:10 -&gt; 11:12
-11:12 -&gt; 11:12</t>
-  </si>
-  <si>
-    <t>AM: Bonne progression, des difficultés sur les caractères majuscules/minuscules qui a sût surmonter</t>
-  </si>
-  <si>
-    <t>olivier.emiot@epitech.eu</t>
-  </si>
-  <si>
-    <t>pierre-malko.denat@epitech.eu</t>
-  </si>
-  <si>
-    <t>romain.hoarau@epitech.eu</t>
+    <t>Normalement il a fini le tree (avec scandir, pas ouf). Est entrain de faire la step 2, gestion du $PATH comme le 42sh. Pas trop de difficultés. Plus de difficulté avec la compréhension du sujet en détail sinon OK.</t>
+  </si>
+  <si>
+    <t>mohamed-riadh.ghellab@epitech.eu</t>
+  </si>
+  <si>
+    <t>14:56 -&gt; 15:22
+16:52 -&gt; 17:10</t>
+  </si>
+  <si>
+    <t>Requirements OK. Apprentissage des graph. (Semble être difficile pour lui car jamais fait)</t>
+  </si>
+  <si>
+    <t>nathan.barre@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:19 -&gt; 10:37
+13:50 -&gt; 13:51
+15:39 -&gt; 16:15
+16:51 -&gt; 17:10</t>
+  </si>
+  <si>
+    <t>Il a terminé la première partie. Il passe les requirements. Il fait l'affichage de la deuxième partie. Tests criterions réalisés sur la première partie. Pas de difficultés particulières.</t>
+  </si>
+  <si>
+    <t>olivier.gurses@epitech.eu</t>
+  </si>
+  <si>
+    <t>14:19 -&gt; 14:23
+16:27 -&gt; 16:45</t>
+  </si>
+  <si>
+    <t>Requirement ~. Tree presque terminer. (car utilise la fonction système "tree" avec popen, pas ouf). Entrain de faire la step2 avec l'execution des binaires par rapport au $PATH.</t>
+  </si>
+  <si>
+    <t>paul.peletengeas@epitech.eu</t>
+  </si>
+  <si>
+    <t>9h09-9h14
+09:46 -&gt; 09:49
+10:02 -&gt; 10:12
+10:31 -&gt; 10:33
+11:26 -&gt; 11:30
+11:48 -&gt; 11:51
+14:16 -&gt; 14:27
+15:16 -&gt; 15:29
+16:19 -&gt; 16:40
+17:18 -&gt; 17:36</t>
+  </si>
+  <si>
+    <t>20% du projet réalisé - Requirements qui passent - pas de difficultés.</t>
+  </si>
+  <si>
+    <t>pierre.boscher@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:33 -&gt; 10:41
+15:13 -&gt; 15:26
+17:06 -&gt; 17:29</t>
+  </si>
+  <si>
+    <t>Première partie terminé. Commence la deuxième partie (recherche du path). Il passe les requirements, pas de difficultés particulières.</t>
+  </si>
+  <si>
+    <t>simon.houliat@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:02 -&gt; 10:13
+14:16 -&gt; 14:27
+15:18 -&gt; 15:29
+16:20 -&gt; 16:42
+17:24 -&gt; 17:35</t>
+  </si>
+  <si>
+    <t>Retard, 9h01</t>
+  </si>
+  <si>
+    <t>thomas.billaud@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:20 -&gt; 10:37
+16:01 -&gt; 16:20</t>
+  </si>
+  <si>
+    <t>Requirements OK. Travail sur le tree avec de la recursivité et pas popen (GOOD). Difficulté sur la récursivité. Viens de comprendre ses soucis, donc ça roule.</t>
   </si>
   <si>
     <t>thomas.demonchaux@epitech.eu</t>
   </si>
   <si>
-    <t>09:43 -&gt; 09:50</t>
-  </si>
-  <si>
-    <t>thomas.labrousse@epitech.eu</t>
-  </si>
-  <si>
-    <t>11:22 -&gt; 11:29</t>
-  </si>
-  <si>
-    <t>valentin.erdozain@epitech.eu</t>
-  </si>
-  <si>
-    <t>victor.miot@epitech.eu</t>
-  </si>
-  <si>
-    <t>10:00 -&gt; 10:00
-10:22 -&gt; 10:34</t>
+    <t>09:46 -&gt; 09:53
+14:59 -&gt; 15:02
+15:59 -&gt; 15:59
+17:38 -&gt; 17:40</t>
+  </si>
+  <si>
+    <t>Termine la résursive du tree et doit faire l'affichage. il passe les requirements. Des difficultés avec les fonctions systèmes (stat, dirent).</t>
+  </si>
+  <si>
+    <t>valentin.charbonnier@epitech.eu</t>
+  </si>
+  <si>
+    <t>10:47 -&gt; 11:05
+16:22 -&gt; 16:28</t>
+  </si>
+  <si>
+    <t>Il a terminé la première partie et commence la deuxième (recherche du path). Il passe les requirements.</t>
   </si>
   <si>
     <t>yann.marcotte@epitech.eu</t>
   </si>
   <si>
-    <t>09:12 -&gt; 09:15
-10:34 -&gt; 10:37</t>
+    <t>14:56 -&gt; 15:22</t>
+  </si>
+  <si>
+    <t>Fini les requirements. (fork)
+Commence le tree. Visualisation des taches à faire. Prend son temps. Graph OK.</t>
   </si>
 </sst>
 </file>
@@ -197,15 +350,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,7 +675,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
@@ -549,241 +699,307 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2"/>
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>34</v>
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="28" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2"/>
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" ht="60" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/template.xlsx
+++ b/server/template.xlsx
@@ -30,7 +30,10 @@
   <si>
     <t>14:21 -&gt; 14:24
 15:31 -&gt; 16:20
-23:03 -&gt; 23:03</t>
+23:03 -&gt; 23:03
+02:42 -&gt; 02:42
+02:42 -&gt; 02:42
+02:42 -&gt; 02:42</t>
   </si>
   <si>
     <t>A terminé le tree, commence la deuxième partie (recherche du path). Les requirements passent. Pas de difficultés particulières.</t>
@@ -321,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -678,7 +681,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="3" width="60.5" customWidth="1"/>

--- a/server/template.xlsx
+++ b/server/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CBC428-AB70-E241-892F-EF3CBEA027AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CA9FDE-5586-9841-9B78-66A42253A7A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>login</t>
   </si>
@@ -24,6 +24,87 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>adrien.pilet@epitech.eu</t>
+  </si>
+  <si>
+    <t>alex.wild@epitech.eu</t>
+  </si>
+  <si>
+    <t>antoine.duplaa@epitech.eu</t>
+  </si>
+  <si>
+    <t>apolline.couturier-gauducheau@epitech.eu</t>
+  </si>
+  <si>
+    <t>arthur.viard@epitech.eu</t>
+  </si>
+  <si>
+    <t>charlie.boyer@epitech.eu</t>
+  </si>
+  <si>
+    <t>clement.nieto@epitech.eu</t>
+  </si>
+  <si>
+    <t>dimitri.fleury@epitech.eu</t>
+  </si>
+  <si>
+    <t>elie.gimenez@epitech.eu</t>
+  </si>
+  <si>
+    <t>enzo.delahaye@epitech.eu</t>
+  </si>
+  <si>
+    <t>hugo.mangematin@epitech.eu</t>
+  </si>
+  <si>
+    <t>jinyang.zou@epitech.eu</t>
+  </si>
+  <si>
+    <t>johan.saffre@epitech.eu</t>
+  </si>
+  <si>
+    <t>lohan.delomenie@epitech.eu</t>
+  </si>
+  <si>
+    <t>mathias.cassonnet@epitech.eu</t>
+  </si>
+  <si>
+    <t>maxime.demurger@epitech.eu</t>
+  </si>
+  <si>
+    <t>meyrueis.de-jurquet@epitech.eu</t>
+  </si>
+  <si>
+    <t>mohamed-riadh.ghellab@epitech.eu</t>
+  </si>
+  <si>
+    <t>nathan.barre@epitech.eu</t>
+  </si>
+  <si>
+    <t>olivier.gurses@epitech.eu</t>
+  </si>
+  <si>
+    <t>paul.peletengeas@epitech.eu</t>
+  </si>
+  <si>
+    <t>pierre.boscher@epitech.eu</t>
+  </si>
+  <si>
+    <t>simon.houliat@epitech.eu</t>
+  </si>
+  <si>
+    <t>thomas.billaud@epitech.eu</t>
+  </si>
+  <si>
+    <t>thomas.demonchaux@epitech.eu</t>
+  </si>
+  <si>
+    <t>valentin.charbonnier@epitech.eu</t>
+  </si>
+  <si>
+    <t>yann.marcotte@epitech.eu</t>
   </si>
 </sst>
 </file>
@@ -384,7 +465,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -404,33 +485,141 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
